--- a/NC-Code-Editor.XLSX
+++ b/NC-Code-Editor.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programs\PythonPj\NC-Code-Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B2946A-F373-413C-9846-B358546E6677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C55DD8B-5BFB-4204-942B-9874165FE0BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="0" windowWidth="14445" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>https://docs.python.org/3/library/shutil.html#module-shutil</t>
   </si>
@@ -72,9 +72,6 @@
     </r>
   </si>
   <si>
-    <t>Copy excel file to specific location with specific name</t>
-  </si>
-  <si>
     <t>Copy original nc code from .min and paste into excel file.</t>
   </si>
   <si>
@@ -90,6 +87,34 @@
     <t>https://openpyxl.readthedocs.io/en/stable/#</t>
   </si>
   <si>
+    <t>tkinter library</t>
+  </si>
+  <si>
+    <r>
+      <t>To open the file, use the built-in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFDC143C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>open()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> function.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>The </t>
     </r>
@@ -97,8 +122,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFDC143C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>open()</t>
     </r>
@@ -106,7 +131,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t> function returns a file object, which has a </t>
@@ -115,8 +140,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFDC143C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>read()</t>
     </r>
@@ -124,7 +149,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
       <t> method for reading the content of the file:</t>
@@ -132,35 +157,68 @@
   </si>
   <si>
     <r>
-      <t>To open the file, use the built-in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFDC143C"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>open()</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t> function.</t>
-    </r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0072AA"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tkinter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> package (“Tk interface”) is the standard Python interface to the Tk GUI toolkit. 
+Both Tk and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0072AA"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tkinter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> are available on most Unix platforms, as well as on Windows systems. 
+(Tk itself is not part of Python; it is maintained at ActiveState.)</t>
+    </r>
+  </si>
+  <si>
+    <t>https://realpython.com/python-gui-tkinter/</t>
+  </si>
+  <si>
+    <t>Ui with one text input box and button.</t>
+  </si>
+  <si>
+    <t>Copy excel file to specific location with specific name.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>"cant save vba with openpyxl"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,60 +235,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF40424E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF40424E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFDC143C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDC143C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0072AA"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF40424E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF40424E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFDC143C"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFDC143C"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,23 +334,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -553,133 +632,167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:B19"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="61.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60">
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="44.25">
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="1"/>
+    <row r="21" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" location="module-shutil" xr:uid="{91DD41D2-2AAA-4F4E-9EC6-4090215CA536}"/>
     <hyperlink ref="B15" r:id="rId2" xr:uid="{3EAB2A25-3BC2-473F-821C-36AC0D43DC6C}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{C366EA77-9F81-4D68-921F-B73124CAE2A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74D2390-E281-4119-A4F1-643F0B6AC646}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A4:B5"/>
+  <dimension ref="A4:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>8</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
